--- a/Application/Export.xlsx
+++ b/Application/Export.xlsx
@@ -20,28 +20,34 @@
     <t>Test Script Export</t>
   </si>
   <si>
-    <t>PO-DO Propagation</t>
-  </si>
-  <si>
-    <t>Script Overview</t>
-  </si>
-  <si>
-    <t>Workflow Name</t>
-  </si>
-  <si>
-    <t>Action Name</t>
+    <t>PO Import</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Custom</t>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>Expected Result</t>
   </si>
   <si>
-    <t>PO Import</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>Tester's Initials</t>
   </si>
   <si>
     <t>Import PO Update</t>
@@ -50,52 +56,46 @@
     <t>Import a PO Update XML</t>
   </si>
   <si>
+    <t>Auto Create DO</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
     <t>Execute PO Import</t>
   </si>
   <si>
     <t>Execute a full PO Import</t>
   </si>
   <si>
+    <t>Assign an Order to a Shipment</t>
+  </si>
+  <si>
+    <t>Assign an unassigned Order to a Shipment</t>
+  </si>
+  <si>
     <t>Manual PO Planning</t>
   </si>
   <si>
+    <t>Create PO</t>
+  </si>
+  <si>
+    <t>Create a Purchase Order via the UI</t>
+  </si>
+  <si>
+    <t>Create PO Line RTS</t>
+  </si>
+  <si>
+    <t>Create an RTS from a PO Line</t>
+  </si>
+  <si>
     <t>Create DO</t>
   </si>
   <si>
     <t>Create a DO from an RTS</t>
-  </si>
-  <si>
-    <t>Create PO</t>
-  </si>
-  <si>
-    <t>Create a Purchase Order via the UI</t>
-  </si>
-  <si>
-    <t>Create PO Line RTS</t>
-  </si>
-  <si>
-    <t>Create an RTS from a PO Line</t>
-  </si>
-  <si>
-    <t>Workflow</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Tester's Initials</t>
   </si>
 </sst>
 </file>
@@ -103,7 +103,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -117,12 +117,6 @@
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="13"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,13 +168,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,130 +508,148 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>26</v>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
+      <c r="D5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="B8" t="s">
-        <v>19</v>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="B9" t="s">
-        <v>14</v>
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9"/>
-    <row r="14" spans="1:9"/>
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A1:A10"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A5:A5"/>
-    <mergeCell ref="B5:B5"/>
-    <mergeCell ref="B6:B6"/>
-    <mergeCell ref="B10:B10"/>
-    <mergeCell ref="B7:B7"/>
-    <mergeCell ref="B8:B8"/>
-    <mergeCell ref="B12:B12"/>
-    <mergeCell ref="B9:B9"/>
-    <mergeCell ref="B14:B14"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
